--- a/medicine/Mort/Cimetière_Saint-Landry/Cimetière_Saint-Landry.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Landry/Cimetière_Saint-Landry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Landry</t>
+          <t>Cimetière_Saint-Landry</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Saint-Landry est un ancien cimetière parisien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Landry</t>
+          <t>Cimetière_Saint-Landry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Emplacement et dimensions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière était situé devant la porte principale de l'église Saint-Landry. De forme rectangulaire, il mesurait environ 11 mètres sur 5[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière était situé devant la porte principale de l'église Saint-Landry. De forme rectangulaire, il mesurait environ 11 mètres sur 5,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Landry</t>
+          <t>Cimetière_Saint-Landry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière étant petit, le nombre d'inhumation y était limité à une dizaine de corps par an[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière étant petit, le nombre d'inhumation y était limité à une dizaine de corps par an.
 Une dizaine d'inhumations par an avait également lieu dans l'église.
 Le cimetière est supprimé en même temps que l'église, en 1829.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Landry</t>
+          <t>Cimetière_Saint-Landry</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Si aucun ouvrage ne fait état de personnalités enterrées dans le cimetière Saint-Landry, certaines sources indiquent que le conseiller au Parlement de Paris Pierre Broussel et le sculpteur François Girardon furent inhumés dans l'église.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Landry</t>
+          <t>Cimetière_Saint-Landry</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Église Saint-Landry</t>
         </is>
